--- a/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Dhaka.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Dhaka.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="-21120" windowWidth="25920" windowHeight="21120" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-4220" yWindow="-21140" windowWidth="30060" windowHeight="21120" tabRatio="500" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -582,9 +582,6 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
     <t>pregnant women</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Food security &amp; education</t>
+  </si>
+  <si>
+    <t>Antenatal micronutrient supplementation</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -839,7 +839,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1515,25 +1514,25 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="25">
+        <v>70</v>
+      </c>
+      <c r="B5" s="24">
         <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="26">
+        <v>71</v>
+      </c>
+      <c r="B6" s="25">
         <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="24">
+        <v>72</v>
+      </c>
+      <c r="B7" s="23">
         <v>0.20599999999999999</v>
       </c>
     </row>
@@ -2676,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2750,7 +2749,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2810,7 +2809,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2918,7 +2917,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2949,7 +2948,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -2958,22 +2957,34 @@
         <v>5.16</v>
       </c>
       <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
         <v>1.82</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E3" s="12">
         <v>1.82</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -3194,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3224,16 +3235,16 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.62</v>
       </c>
       <c r="C2" s="2">
         <v>0.85</v>
       </c>
       <c r="D2" s="18">
-        <v>7.08</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="13"/>
@@ -3241,16 +3252,16 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="18">
-        <v>0.62</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="C3" s="2">
         <v>0.85</v>
       </c>
       <c r="D3" s="18">
-        <v>0.35</v>
+        <v>3.56</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="13"/>
@@ -3261,13 +3272,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="18">
-        <v>0.26300000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>0.85</v>
       </c>
       <c r="D4" s="18">
-        <v>3.56</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="13"/>
@@ -3275,33 +3286,33 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="C5" s="2">
         <v>0.85</v>
       </c>
       <c r="D5" s="18">
-        <v>48</v>
+        <v>3.56</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
+      <c r="A6" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="18">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0.85</v>
       </c>
       <c r="D6" s="18">
-        <v>3.56</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="13"/>
@@ -3309,7 +3320,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -3318,27 +3329,17 @@
         <v>0.85</v>
       </c>
       <c r="D7" s="18">
-        <v>25</v>
+        <v>1.78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1.78</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3385,10 +3386,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3433,10 +3431,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3445,10 +3439,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3481,14 +3475,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3497,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3511,7 +3505,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3526,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -3540,13 +3534,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.32900000000000001</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -3557,55 +3553,54 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f>demographics!$B$6</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="E5" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3623,32 +3618,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.32900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -3694,10 +3672,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3742,10 +3717,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3759,7 +3730,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3772,7 +3743,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3789,10 +3760,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3809,14 +3780,14 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.18687199999999998</v>
       </c>
       <c r="D3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.18687199999999998</v>
       </c>
       <c r="E3" s="14">
@@ -3828,10 +3799,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3848,7 +3819,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3870,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3883,7 +3854,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3906,7 +3877,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3918,17 +3889,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0.29699999999999999</v>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3941,55 +3911,23 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="23">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0.29699999999999999</v>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.33500000000000002</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -3997,20 +3935,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4019,10 +3946,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4032,7 +3959,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4055,7 +3982,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4067,17 +3994,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4091,54 +4017,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4146,20 +4040,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4168,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4181,7 +4064,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4204,7 +4087,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4216,17 +4099,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4240,54 +4122,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.62</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4295,20 +4145,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4770,19 +4609,19 @@
       <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>55.698663881814284</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>55.345619498474917</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>42.775005606076839</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>24.454288963869935</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>22.09619681378248</v>
       </c>
     </row>
@@ -4790,19 +4629,19 @@
       <c r="B3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>19.83130428975295</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>19.70560413635884</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>27.378582738126877</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>29.572226670507725</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>28.961590721559187</v>
       </c>
     </row>
@@ -4810,19 +4649,19 @@
       <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>14.33269181033007</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>14.241844454413091</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>20.5250111254777</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>34.50372891234737</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>39.25323005817657</v>
       </c>
     </row>
@@ -4830,19 +4669,19 @@
       <c r="B5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>3.3527922153468324</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>3.3315406380622532</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>4.2959339806592212</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>11.753557334917462</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>11.66584422047778</v>
       </c>
     </row>
@@ -4850,82 +4689,82 @@
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>57.363866802299171</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>57.000267578013421</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>58.806614085767386</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>55.119328291781741</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>49.195757491754208</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>23.578002446934779</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>23.428553954742672</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>23.227450487319992</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>30.179624444376785</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>38.629919288802284</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>15.898484313683731</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>15.797712226897861</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>13.586032515132166</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>11.590405697749299</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>11.063569075124329</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>3.3336257352302598</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>3.3124956441301237</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>3.5829034518142149</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>2.772975968375555</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>1.4203047642899183</v>
       </c>
     </row>
@@ -5059,7 +4898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5089,19 +4928,19 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>2.8</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>2.8</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>3.46</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>2.21</v>
       </c>
     </row>
